--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_d'Estaing/Hôpital_d'Estaing.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_d'Estaing/Hôpital_d'Estaing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Estaing</t>
+          <t>Hôpital_d'Estaing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital d'Estaing ou CHU Estaing est un hôpital situé à Clermont-Ferrand, dans le Puy-de-Dôme. Il fait partie du CHU de Clermont-Ferrand[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital d'Estaing ou CHU Estaing est un hôpital situé à Clermont-Ferrand, dans le Puy-de-Dôme. Il fait partie du CHU de Clermont-Ferrand.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Estaing</t>
+          <t>Hôpital_d'Estaing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Domaines d'intervention</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site possède une capacité de 525 lits. Il regroupe quatre grands pôles[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site possède une capacité de 525 lits. Il regroupe quatre grands pôles:
 Un pôle gynécologie obstétrique et reproduction humaine ;
 Un pôle pédiatrie ;
 Un pôle digestif ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Estaing</t>
+          <t>Hôpital_d'Estaing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Le bâtiment</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU Estaing a été construit entre février 2003[3] et mars 2010 pour y transférer les services jusque-là situés à l'Hôtel-Dieu. Les autres services du CHU de Clermont-Ferrand sont situés à l'hôpital Gabriel-Montpied.
-Le bâtiment a coûté 138,5 millions d'euros[4]. Sa superficie est de 70 000 m2[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU Estaing a été construit entre février 2003 et mars 2010 pour y transférer les services jusque-là situés à l'Hôtel-Dieu. Les autres services du CHU de Clermont-Ferrand sont situés à l'hôpital Gabriel-Montpied.
+Le bâtiment a coûté 138,5 millions d'euros. Sa superficie est de 70 000 m2.
 Le nouvel hôpital a été construit dans le quartier République, sur un ancien site industriel Michelin (l'usine d'Estaing).
 Il se trouve à proximité de la ligne de tramway A et du stade Marcel-Michelin.
 La faculté de chirurgie dentaire de Clermont-Ferrand se situe sur le terrain du CHU.
